--- a/src/main/resources/static/template/xlsx.xlsx
+++ b/src/main/resources/static/template/xlsx.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maziyar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maziy\IdeaProjects\IDMAN\src\main\resources\static\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDF1ECD-8EA1-4B9F-999A-721453E74FF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296FC6B0-A67C-4434-B268-DA37593E046D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19224" yWindow="2010" windowWidth="7500" windowHeight="6000" xr2:uid="{51177B91-D390-4BF4-B6FC-622021ABA2C5}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{51177B91-D390-4BF4-B6FC-622021ABA2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -445,12 +445,14 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C1" sqref="C1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="1" max="1" width="8.83984375" customWidth="1"/>
     <col min="2" max="2" width="45.68359375" customWidth="1"/>
+    <col min="3" max="16384" width="8.83984375" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
